--- a/risultato/FASCIA A - BIANCA-BIANCOGIALLA-GIALLA POOL-2.xlsx
+++ b/risultato/FASCIA A - BIANCA-BIANCOGIALLA-GIALLA POOL-2.xlsx
@@ -574,21 +574,21 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
+          <t>ASD KI KAI DOJO CARBONERA</t>
         </is>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>BAGGIO</t>
+          <t>ZARATTINI</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>EDOARDO</t>
+          <t>LEONARDO</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr"/>
@@ -601,7 +601,7 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="10" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
@@ -610,12 +610,12 @@
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>ZARATTINI</t>
+          <t>CADAMURO</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>LEONARDO</t>
+          <t>TOMMASO</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr"/>
@@ -628,7 +628,7 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="6" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
@@ -637,12 +637,12 @@
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>SERNAGLIA</t>
+          <t xml:space="preserve">MARCON </t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>LEONARDO</t>
+          <t>SOFIA</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr"/>
@@ -709,21 +709,21 @@
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="10" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">LEMKHANTERE </t>
+          <t>SERNAGLIA</t>
         </is>
       </c>
       <c r="D9" s="11" t="inlineStr">
         <is>
-          <t>DUA</t>
+          <t>LEONARDO</t>
         </is>
       </c>
       <c r="E9" s="11" t="inlineStr"/>
@@ -736,21 +736,21 @@
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="6" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
+          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">MARCON </t>
+          <t>BAGGIO</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
         <is>
-          <t>SOFIA</t>
+          <t>EDOARDO</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
@@ -763,21 +763,21 @@
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="10" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>ASD KI KAI DOJO CARBONERA</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>CADAMURO</t>
+          <t xml:space="preserve">LEMKHANTERE </t>
         </is>
       </c>
       <c r="D11" s="11" t="inlineStr">
         <is>
-          <t>TOMMASO</t>
+          <t>DUA</t>
         </is>
       </c>
       <c r="E11" s="11" t="inlineStr"/>

--- a/risultato/FASCIA A - BIANCA-BIANCOGIALLA-GIALLA POOL-2.xlsx
+++ b/risultato/FASCIA A - BIANCA-BIANCOGIALLA-GIALLA POOL-2.xlsx
@@ -574,21 +574,21 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t>ASD KI KAI DOJO CARBONERA</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>ZARATTINI</t>
+          <t xml:space="preserve">SOLDA’ </t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>LEONARDO</t>
+          <t>ETTORE</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr"/>
@@ -601,21 +601,21 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="10" t="n">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>ASD KI KAI DOJO CARBONERA</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>CADAMURO</t>
+          <t>TRENTIN</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>TOMMASO</t>
+          <t>LORENZO</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr"/>
@@ -628,21 +628,21 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="6" t="n">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
+          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">MARCON </t>
+          <t>BLEVE</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>SOFIA</t>
+          <t>SEBASTIAN</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr"/>
@@ -655,21 +655,21 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="10" t="n">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
+          <t>ASD KI KAI DOJO CARBONERA</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>MARCHETTO</t>
+          <t>NAQO</t>
         </is>
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>FILIPPO</t>
+          <t>ALEX</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr"/>
@@ -682,21 +682,21 @@
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="6" t="n">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>ASD KI KAI DOJO CARBONERA</t>
+          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>CISLARI</t>
+          <t>BERRA</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>MAXIM</t>
+          <t>GIACOMO</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
@@ -709,7 +709,7 @@
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="10" t="n">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
@@ -718,12 +718,12 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>SERNAGLIA</t>
+          <t>OUALMAM</t>
         </is>
       </c>
       <c r="D9" s="11" t="inlineStr">
         <is>
-          <t>LEONARDO</t>
+          <t>ISMAIL</t>
         </is>
       </c>
       <c r="E9" s="11" t="inlineStr"/>
@@ -736,21 +736,21 @@
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="6" t="n">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
+          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>BAGGIO</t>
+          <t>MARCHETTO</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
         <is>
-          <t>EDOARDO</t>
+          <t>FILIPPO</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
@@ -763,21 +763,21 @@
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="10" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>ASD KI KAI DOJO CARBONERA</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">LEMKHANTERE </t>
+          <t>MASELLI</t>
         </is>
       </c>
       <c r="D11" s="11" t="inlineStr">
         <is>
-          <t>DUA</t>
+          <t>SERENA</t>
         </is>
       </c>
       <c r="E11" s="11" t="inlineStr"/>

--- a/risultato/FASCIA A - BIANCA-BIANCOGIALLA-GIALLA POOL-2.xlsx
+++ b/risultato/FASCIA A - BIANCA-BIANCOGIALLA-GIALLA POOL-2.xlsx
@@ -574,21 +574,21 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>ASD KI KAI DOJO CARBONERA</t>
         </is>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">SOLDA’ </t>
+          <t>MASELLI</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>ETTORE</t>
+          <t>SERENA</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr"/>
@@ -601,21 +601,21 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="10" t="n">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>TRENTIN</t>
+          <t>OUALMAM</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>LORENZO</t>
+          <t>ISMAIL</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr"/>
@@ -628,21 +628,21 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="6" t="n">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
+          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>BLEVE</t>
+          <t>BERRA</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
+          <t>GIACOMO</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr"/>
@@ -655,21 +655,21 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="10" t="n">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>ASD KI KAI DOJO CARBONERA</t>
+          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>NAQO</t>
+          <t>MARCHETTO</t>
         </is>
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>ALEX</t>
+          <t>FILIPPO</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr"/>
@@ -682,21 +682,21 @@
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="6" t="n">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>BERRA</t>
+          <t xml:space="preserve">SOLDA’ </t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>GIACOMO</t>
+          <t>ETTORE</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
@@ -709,21 +709,21 @@
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="10" t="n">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>OUALMAM</t>
+          <t>TRENTIN</t>
         </is>
       </c>
       <c r="D9" s="11" t="inlineStr">
         <is>
-          <t>ISMAIL</t>
+          <t>LORENZO</t>
         </is>
       </c>
       <c r="E9" s="11" t="inlineStr"/>
@@ -736,7 +736,7 @@
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="6" t="n">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
@@ -745,12 +745,12 @@
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>MARCHETTO</t>
+          <t>BLEVE</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
         <is>
-          <t>FILIPPO</t>
+          <t>SEBASTIAN</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
@@ -763,7 +763,7 @@
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="10" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
@@ -772,12 +772,12 @@
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>MASELLI</t>
+          <t>NAQO</t>
         </is>
       </c>
       <c r="D11" s="11" t="inlineStr">
         <is>
-          <t>SERENA</t>
+          <t>ALEX</t>
         </is>
       </c>
       <c r="E11" s="11" t="inlineStr"/>
